--- a/diagramme/SpielTests.xlsx
+++ b/diagramme/SpielTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UNI\S4\ComputerspielEntwicklung\DasSpiel\anfaengerpraktikum\diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143108FB-E897-4278-9543-0C3E919CD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D04345-1A58-4CCD-882F-E640078F89D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
